--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,23 +5,34 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAE\Desktop\deep__git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38C2B4A-5AA5-4988-B5A6-9772BD02A5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A323F4F8-B027-4EF9-8DAA-9A028656D1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="1305" windowWidth="19905" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>3,4-(5)</t>
   </si>
@@ -188,6 +199,14 @@
   </si>
   <si>
     <t>2주차 이론시험 채점표</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1042,27 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1031,27 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1604,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,104 +1634,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -2205,29 +2224,69 @@
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -2387,7 +2446,7 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
@@ -2395,81 +2454,81 @@
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="16" t="s">
+        <v>3.75</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2500,104 +2559,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -3354,7 +3413,7 @@
         <f>SUM(B26:U26) / 20</f>
         <v>0</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,23 +5,34 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\DeepLearning\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38C2B4A-5AA5-4988-B5A6-9772BD02A5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED3F30B-9265-4E31-94F2-4F54B2EDE8BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>3,4-(5)</t>
   </si>
@@ -188,6 +199,14 @@
   </si>
   <si>
     <t>2주차 이론시험 채점표</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1042,27 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1031,27 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1604,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,104 +1634,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -1965,29 +1984,69 @@
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="V12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>70%</v>
       </c>
       <c r="X12" s="2"/>
     </row>
@@ -2387,7 +2446,7 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
@@ -2395,81 +2454,81 @@
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="10">
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="10">
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="16" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2500,104 +2559,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -3354,7 +3413,7 @@
         <f>SUM(B26:U26) / 20</f>
         <v>0</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,23 +5,34 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38C2B4A-5AA5-4988-B5A6-9772BD02A5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA01FD-77F1-41F4-8F9B-2CD6A7BB5F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>3,4-(5)</t>
   </si>
@@ -189,6 +200,12 @@
   <si>
     <t>2주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1023,6 +1040,27 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1031,27 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1604,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,104 +1632,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -2175,29 +2192,69 @@
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
@@ -2387,89 +2444,89 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="16" t="s">
+        <v>4.75</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2500,104 +2557,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -3354,7 +3411,7 @@
         <f>SUM(B26:U26) / 20</f>
         <v>0</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAE\Desktop\deep__git\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A323F4F8-B027-4EF9-8DAA-9A028656D1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B38C2B4A-5AA5-4988-B5A6-9772BD02A5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{966E7BEB-FF9E-4B0C-87D8-7AEA0ADA41C5}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="1305" windowWidth="19905" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,61 +34,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
-    <t>3,4-(5)</t>
-  </si>
-  <si>
-    <t>5,6-(4)</t>
-  </si>
-  <si>
-    <t>7,8-(2)</t>
-  </si>
-  <si>
-    <t>7,8-(3)</t>
-  </si>
-  <si>
-    <t>3,4-(2)</t>
-  </si>
-  <si>
-    <t>5,6-(3)</t>
-  </si>
-  <si>
-    <t>5,6-(2)</t>
-  </si>
-  <si>
-    <t>1,2-(2)</t>
-  </si>
-  <si>
-    <t>1,2-(5)</t>
-  </si>
-  <si>
-    <t>3,4-(4)</t>
-  </si>
-  <si>
-    <t>1,2-(3)</t>
-  </si>
-  <si>
-    <t>5,6-(5)</t>
-  </si>
-  <si>
-    <t>3,4-(3)</t>
-  </si>
-  <si>
-    <t>1,2-(1)</t>
-  </si>
-  <si>
-    <t>7,8-(1)</t>
-  </si>
-  <si>
-    <t>7,8-(4)</t>
-  </si>
-  <si>
-    <t>7,8-(5)</t>
-  </si>
-  <si>
-    <t>1,2-(4)</t>
-  </si>
-  <si>
-    <t>5,6-(1)</t>
+    <t>1주차 이론시험 채점표</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞음: O 틀림: X</t>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>김경수</t>
@@ -171,19 +125,75 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>정답률</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(1)</t>
+  </si>
+  <si>
+    <t>1,2-(2)</t>
+  </si>
+  <si>
+    <t>1,2-(3)</t>
+  </si>
+  <si>
+    <t>1,2-(4)</t>
+  </si>
+  <si>
+    <t>1,2-(5)</t>
+  </si>
+  <si>
     <t>3,4-(1)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>문제</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞음: O 틀림: X</t>
-  </si>
-  <si>
-    <t>정답률</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <t>3,4-(2)</t>
+  </si>
+  <si>
+    <t>3,4-(3)</t>
+  </si>
+  <si>
+    <t>3,4-(4)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>3,4-(5)</t>
+  </si>
+  <si>
+    <t>5,6-(1)</t>
+  </si>
+  <si>
+    <t>5,6-(2)</t>
+  </si>
+  <si>
+    <t>5,6-(3)</t>
+  </si>
+  <si>
+    <t>5,6-(4)</t>
+  </si>
+  <si>
+    <t>5,6-(5)</t>
+  </si>
+  <si>
+    <t>7,8-(1)</t>
+  </si>
+  <si>
+    <t>7,8-(2)</t>
+  </si>
+  <si>
+    <t>7,8-(3)</t>
+  </si>
+  <si>
+    <t>7,8-(4)</t>
+  </si>
+  <si>
+    <t>7,8-(5)</t>
   </si>
   <si>
     <t>총점</t>
@@ -194,19 +204,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>1주차 이론시험 채점표</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2주차 이론시험 채점표</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1623,19 +1621,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1659,7 +1657,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1683,7 +1681,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1707,9 +1705,9 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1">
       <c r="A4" s="20" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1733,77 +1731,77 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="V5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1830,9 +1828,9 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1860,9 +1858,9 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1890,9 +1888,9 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1920,9 +1918,9 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1950,9 +1948,9 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1980,9 +1978,9 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2010,9 +2008,9 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2040,39 +2038,79 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>15%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="12" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2100,9 +2138,9 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2130,9 +2168,9 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2160,9 +2198,9 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="12" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2190,9 +2228,9 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="12" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2220,79 +2258,39 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>75%</v>
+        <v>0%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="12" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2320,9 +2318,9 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2350,9 +2348,9 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="12" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2380,9 +2378,9 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2410,9 +2408,9 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1">
       <c r="A25" s="12" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2440,13 +2438,13 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
@@ -2454,67 +2452,67 @@
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
@@ -2522,14 +2520,14 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="W26" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2552,15 +2550,15 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2584,7 +2582,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2608,7 +2606,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2632,9 +2630,9 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1">
       <c r="A4" s="20" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -2658,77 +2656,77 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="V5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2755,9 +2753,9 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2785,9 +2783,9 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2815,9 +2813,9 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2845,9 +2843,9 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2875,9 +2873,9 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2905,9 +2903,9 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2935,9 +2933,9 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2965,9 +2963,9 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="12" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2995,9 +2993,9 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="12" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3025,9 +3023,9 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3055,9 +3053,9 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3085,9 +3083,9 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="12" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3115,9 +3113,9 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="12" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3145,9 +3143,9 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3175,9 +3173,9 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="12" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3205,9 +3203,9 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3235,9 +3233,9 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="12" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3265,9 +3263,9 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3295,9 +3293,9 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1">
       <c r="A25" s="12" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3325,9 +3323,9 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
@@ -3414,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,23 +5,34 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohsuzy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38C2B4A-5AA5-4988-B5A6-9772BD02A5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B3B31-4B06-45B1-988F-72CEC7D00649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>3,4-(5)</t>
   </si>
@@ -188,6 +199,14 @@
   </si>
   <si>
     <t>2주차 이론시험 채점표</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1042,27 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1031,27 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1604,117 +1623,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -1782,7 +1801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1830,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1860,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1890,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +1920,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1950,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -1961,7 +1980,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2010,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -2021,7 +2040,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2051,7 +2070,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2100,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
@@ -2111,7 +2130,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +2160,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2190,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -2201,7 +2220,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2250,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2261,7 +2280,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
@@ -2291,7 +2310,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
@@ -2321,7 +2340,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -2351,125 +2370,165 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="16" t="s">
+        <v>4.75</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2493,113 +2552,113 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -2667,7 +2726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -2696,7 +2755,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2785,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -2756,7 +2815,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2845,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -2816,7 +2875,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -2846,7 +2905,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +2935,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +2965,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +2995,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +3025,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
@@ -2996,7 +3055,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -3026,7 +3085,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +3115,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -3086,7 +3145,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3175,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3146,7 +3205,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
@@ -3176,7 +3235,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3265,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -3236,7 +3295,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
@@ -3266,7 +3325,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
@@ -3354,7 +3413,7 @@
         <f>SUM(B26:U26) / 20</f>
         <v>0</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
     </row>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\deepstudy\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B38C2B4A-5AA5-4988-B5A6-9772BD02A5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{966E7BEB-FF9E-4B0C-87D8-7AEA0ADA41C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BDEFB-24E4-41CE-80D4-941614A8B60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -205,6 +204,14 @@
   </si>
   <si>
     <t>2주차 이론시험 채점표</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1622,16 +1629,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1664,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1681,7 +1688,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1705,7 +1712,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1738,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1835,972 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>95%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>15%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>5.5</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1858,7 +2830,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +2860,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +2890,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1948,7 +2920,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -1978,7 +2950,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2008,7 +2980,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2038,77 +3010,37 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>15%</v>
+        <v>0%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2138,7 +3070,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -2168,7 +3100,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -2198,7 +3130,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -2228,7 +3160,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
@@ -2258,7 +3190,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -2288,7 +3220,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2318,7 +3250,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
@@ -2348,7 +3280,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +3310,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
@@ -2408,7 +3340,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2438,892 +3370,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>0.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,34 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\DeepLearning\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mco34\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED3F30B-9265-4E31-94F2-4F54B2EDE8BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC5DB1-5343-4B33-B3CE-F8585EF0DAAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>3,4-(5)</t>
   </si>
@@ -207,6 +196,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1624,16 +1617,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B8" sqref="B8:U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
@@ -1659,7 +1652,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1683,7 +1676,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1707,7 +1700,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +1726,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -1801,7 +1794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1823,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -1860,37 +1853,77 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="V8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1920,7 +1953,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -1950,7 +1983,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -1980,7 +2013,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2083,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -2080,7 +2113,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2110,7 +2143,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2173,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
@@ -2170,7 +2203,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -2200,7 +2233,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2263,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -2260,7 +2293,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2323,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2320,7 +2353,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
@@ -2350,7 +2383,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
@@ -2380,7 +2413,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2443,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
@@ -2440,93 +2473,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>44</v>
@@ -2552,13 +2585,13 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
@@ -2584,7 +2617,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2608,7 +2641,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2632,7 +2665,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -2658,7 +2691,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -2726,7 +2759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -2755,7 +2788,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2818,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -2815,7 +2848,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -2845,7 +2878,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2908,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -2905,7 +2938,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2968,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +2998,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2995,7 +3028,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3058,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3088,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -3085,7 +3118,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
@@ -3115,7 +3148,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -3145,7 +3178,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -3175,7 +3208,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3238,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
@@ -3235,7 +3268,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
@@ -3265,7 +3298,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -3295,7 +3328,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
@@ -3325,7 +3358,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>43</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\deepstudy\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BDEFB-24E4-41CE-80D4-941614A8B60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408067BD-FE52-414E-B431-7FFFDA95F58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -1629,7 +1629,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2279,29 +2279,69 @@
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
@@ -2491,31 +2531,31 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -2523,55 +2563,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>5.5</v>
+        <v>10.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>47</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\deepstudy\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BDEFB-24E4-41CE-80D4-941614A8B60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -208,6 +207,46 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -218,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1079,51 +1118,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1304,7 +1343,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1313,7 +1352,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1625,20 +1664,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1703,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1688,7 +1727,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1712,7 +1751,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1777,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +1845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +1874,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1905,7 +1944,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1935,7 +1974,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -1965,7 +2004,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1995,7 +2034,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2025,7 +2064,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2055,7 +2094,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2085,7 +2124,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2194,932 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>85%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>10</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>9.75</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +3149,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -2215,7 +3179,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -2245,7 +3209,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -2275,7 +3239,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
@@ -2305,7 +3269,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -2335,7 +3299,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2365,7 +3329,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
@@ -2395,7 +3359,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2425,7 +3389,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
@@ -2455,7 +3419,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2485,892 +3449,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>5</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>5.5</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -252,6 +252,12 @@
   <si>
     <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1667,17 +1673,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1709,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1727,7 +1733,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1751,7 +1757,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1777,7 +1783,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1950,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1974,7 +1980,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2010,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2034,7 +2040,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2064,7 +2070,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2094,7 +2100,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2124,7 +2130,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2200,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2264,7 +2270,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -2294,7 +2300,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -2324,7 +2330,932 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>60%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>12.75</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -2354,7 +3285,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
@@ -2384,7 +3315,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -2414,7 +3345,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +3375,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
@@ -2474,7 +3405,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2504,7 +3435,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +3465,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2564,892 +3495,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>9.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284FC3D-3915-4BDD-857A-964BE8BC6978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -257,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1118,51 +1120,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="20% - 강조색2" xfId="25"/>
-    <cellStyle name="20% - 강조색3" xfId="29"/>
-    <cellStyle name="20% - 강조색4" xfId="33"/>
-    <cellStyle name="20% - 강조색5" xfId="37"/>
-    <cellStyle name="20% - 강조색6" xfId="41"/>
-    <cellStyle name="40% - 강조색1" xfId="22"/>
-    <cellStyle name="40% - 강조색2" xfId="26"/>
-    <cellStyle name="40% - 강조색3" xfId="30"/>
-    <cellStyle name="40% - 강조색4" xfId="34"/>
-    <cellStyle name="40% - 강조색5" xfId="38"/>
-    <cellStyle name="40% - 강조색6" xfId="42"/>
-    <cellStyle name="60% - 강조색1" xfId="23"/>
-    <cellStyle name="60% - 강조색2" xfId="27"/>
-    <cellStyle name="60% - 강조색3" xfId="31"/>
-    <cellStyle name="60% - 강조색4" xfId="35"/>
-    <cellStyle name="60% - 강조색5" xfId="39"/>
-    <cellStyle name="60% - 강조색6" xfId="43"/>
-    <cellStyle name="강조색1" xfId="21"/>
-    <cellStyle name="강조색2" xfId="24"/>
-    <cellStyle name="강조색3" xfId="28"/>
-    <cellStyle name="강조색4" xfId="32"/>
-    <cellStyle name="강조색5" xfId="36"/>
-    <cellStyle name="강조색6" xfId="40"/>
-    <cellStyle name="경고문" xfId="6"/>
-    <cellStyle name="계산" xfId="14"/>
-    <cellStyle name="나쁨" xfId="19"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="보통" xfId="20"/>
-    <cellStyle name="설명텍스트" xfId="44"/>
-    <cellStyle name="셀 확인" xfId="15"/>
-    <cellStyle name="연결된 셀" xfId="16"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
-    <cellStyle name="요약" xfId="17"/>
-    <cellStyle name="입력" xfId="12"/>
-    <cellStyle name="제목" xfId="7"/>
-    <cellStyle name="제목 1" xfId="8"/>
-    <cellStyle name="제목 2" xfId="9"/>
-    <cellStyle name="제목 3" xfId="10"/>
-    <cellStyle name="제목 4" xfId="11"/>
-    <cellStyle name="좋음" xfId="18"/>
-    <cellStyle name="출력" xfId="13"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4"/>
+    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1343,7 +1345,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1352,7 +1354,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1664,20 +1666,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1705,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1727,7 +1729,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1751,7 +1753,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1777,7 +1779,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1946,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1974,7 +1976,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2006,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2034,7 +2036,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2064,7 +2066,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2094,7 +2096,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2124,7 +2126,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2196,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2264,7 +2266,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -2294,7 +2296,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -2324,7 +2326,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -2354,7 +2356,932 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>14.5</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
@@ -2384,7 +3311,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -2414,7 +3341,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +3371,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
@@ -2474,7 +3401,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2504,7 +3431,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +3461,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2564,892 +3491,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>9.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAE\Desktop\deep__git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A323F4F8-B027-4EF9-8DAA-9A028656D1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDCBDF-5E62-41A9-A606-58F79DD6587D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="1305" windowWidth="19905" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="1125" windowWidth="11895" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
@@ -32,160 +32,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
+  <si>
+    <t>1주차 이론시험 채점표</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞음: O 틀림: X</t>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경수</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도현</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민우</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>박관희</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>배제현</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>정영도</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영환</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동혁</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽윤하</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선진</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용진</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>염주헌</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>오수지</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>이다빈</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상원</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지상</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>전은성</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>황인호</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민경</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현수</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답률</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(1)</t>
+  </si>
+  <si>
+    <t>1,2-(2)</t>
+  </si>
+  <si>
+    <t>1,2-(3)</t>
+  </si>
+  <si>
+    <t>1,2-(4)</t>
+  </si>
+  <si>
+    <t>1,2-(5)</t>
+  </si>
+  <si>
+    <t>3,4-(1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(2)</t>
+  </si>
+  <si>
+    <t>3,4-(3)</t>
+  </si>
+  <si>
+    <t>3,4-(4)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
   <si>
     <t>3,4-(5)</t>
   </si>
   <si>
+    <t>5,6-(1)</t>
+  </si>
+  <si>
+    <t>5,6-(2)</t>
+  </si>
+  <si>
+    <t>5,6-(3)</t>
+  </si>
+  <si>
     <t>5,6-(4)</t>
   </si>
   <si>
+    <t>5,6-(5)</t>
+  </si>
+  <si>
+    <t>7,8-(1)</t>
+  </si>
+  <si>
     <t>7,8-(2)</t>
   </si>
   <si>
     <t>7,8-(3)</t>
   </si>
   <si>
-    <t>3,4-(2)</t>
-  </si>
-  <si>
-    <t>5,6-(3)</t>
-  </si>
-  <si>
-    <t>5,6-(2)</t>
-  </si>
-  <si>
-    <t>1,2-(2)</t>
-  </si>
-  <si>
-    <t>1,2-(5)</t>
-  </si>
-  <si>
-    <t>3,4-(4)</t>
-  </si>
-  <si>
-    <t>1,2-(3)</t>
-  </si>
-  <si>
-    <t>5,6-(5)</t>
-  </si>
-  <si>
-    <t>3,4-(3)</t>
-  </si>
-  <si>
-    <t>1,2-(1)</t>
-  </si>
-  <si>
-    <t>7,8-(1)</t>
-  </si>
-  <si>
     <t>7,8-(4)</t>
   </si>
   <si>
     <t>7,8-(5)</t>
   </si>
   <si>
-    <t>1,2-(4)</t>
-  </si>
-  <si>
-    <t>5,6-(1)</t>
-  </si>
-  <si>
-    <t>김경수</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>김도현</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민우</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>박관희</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>배제현</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>정영도</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>최영환</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동혁</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>곽윤하</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>김선진</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>신용진</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>염주헌</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>오수지</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>이다빈</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상원</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지상</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>전은성</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>황인호</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>조민경</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>이현수</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4-(1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞음: O 틀림: X</t>
-  </si>
-  <si>
-    <t>정답률</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>총점</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -194,19 +204,55 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>1주차 이론시험 채점표</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1620,11 +1666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1681,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1709,7 +1755,7 @@
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1735,75 +1781,75 @@
     </row>
     <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="V5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1832,7 +1878,1052 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>95%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>15%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>85%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>13.75</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1862,7 +2953,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1892,7 +2983,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1922,7 +3013,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1952,7 +3043,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1982,7 +3073,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2012,7 +3103,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2042,7 +3133,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2072,7 +3163,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2102,7 +3193,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2132,7 +3223,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2162,7 +3253,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2192,7 +3283,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2222,77 +3313,37 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>75%</v>
+        <v>0%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2322,7 +3373,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2352,7 +3403,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2382,7 +3433,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2412,7 +3463,7 @@
     </row>
     <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2442,11 +3493,11 @@
     </row>
     <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
@@ -2454,15 +3505,15 @@
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -2470,23 +3521,23 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
@@ -2494,11 +3545,11 @@
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
@@ -2506,15 +3557,15 @@
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
@@ -2522,891 +3573,6 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>3.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V26" s="6">
@@ -3414,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAE\Desktop\deep__git\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDCBDF-5E62-41A9-A606-58F79DD6587D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="1125" windowWidth="11895" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="1125" windowWidth="11895" windowHeight="12915" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -254,12 +253,18 @@
   <si>
     <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1120,51 +1125,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1345,7 +1350,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1354,7 +1359,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1666,11 +1671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2330,6 +2335,971 @@
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>60%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>16.75</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2360,69 +3330,29 @@
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>0%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
@@ -2612,891 +3542,6 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>15</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>13.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
         <v>0</v>
       </c>
       <c r="C26" s="10">

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="1125" windowWidth="11895" windowHeight="12915" tabRatio="580"/>
+    <workbookView xWindow="7160" yWindow="1130" windowWidth="11900" windowHeight="12920" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="63">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1675,16 +1675,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:U18"/>
+      <selection activeCell="B6" sqref="B6:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1734,7 +1734,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1758,7 +1758,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1852,1132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>90%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>95%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>15%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>85%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>60%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>25</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>20</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>21.25</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1881,77 +3006,37 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="V7" s="8" t="str">
         <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>95%</v>
+        <v>0%</v>
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1981,7 +3066,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +3096,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2041,7 +3126,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +3156,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2101,7 +3186,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2131,147 +3216,67 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>15%</v>
+        <v>0%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>0%</v>
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -2301,7 +3306,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -2331,147 +3336,67 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>60%</v>
+        <v>0%</v>
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>0%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -2501,7 +3426,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2531,7 +3456,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
@@ -2561,7 +3486,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2591,7 +3516,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
@@ -2621,7 +3546,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2651,892 +3576,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>20</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>15</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>16.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAE\Desktop\deep__git\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDCBDF-5E62-41A9-A606-58F79DD6587D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="1125" windowWidth="11895" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7160" yWindow="1130" windowWidth="11900" windowHeight="12920" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -253,13 +252,65 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1120,51 +1171,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1345,7 +1396,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1354,7 +1405,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1666,20 +1717,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1756,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1729,7 +1780,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1753,7 +1804,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1830,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1927,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1997,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1976,7 +2027,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2057,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2036,7 +2087,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2117,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +2147,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2177,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
@@ -2196,7 +2247,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2266,7 +2317,972 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>75%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>17.5</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -2296,7 +3312,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -2326,7 +3342,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -2356,77 +3372,37 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>0%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -2456,7 +3432,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +3462,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
@@ -2516,7 +3492,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2546,7 +3522,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
@@ -2576,7 +3552,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2606,892 +3582,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>15</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>13.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408067BD-FE52-414E-B431-7FFFDA95F58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="2" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="55">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -208,6 +202,21 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -218,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1079,51 +1088,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1304,7 +1313,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1313,7 +1322,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1625,11 +1634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E809F2-D015-4004-8693-308D27186F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1840,7 +1849,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>50</v>
@@ -1999,6 +2008,1011 @@
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>100%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>15%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="8" t="e">
+        <f>B7+B11=COUNTIF(B19:U19,"O") * 5 &amp; "%"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26) / 20</f>
+        <v>15.25</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2089,69 +3103,29 @@
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>15%</v>
+        <v>0%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
@@ -2279,69 +3253,29 @@
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>0%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
@@ -2531,891 +3465,6 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>10</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26) / 20</f>
-        <v>10.25</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O") * 5 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O") * 5</f>
         <v>0</v>
       </c>
       <c r="C26" s="10">

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>1주차 이론시험 채점표</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -305,6 +305,12 @@
   <si>
     <t>x</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2031,29 +2037,69 @@
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="V9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X9" s="2"/>
     </row>
@@ -2703,23 +2749,23 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O") * 5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O") * 5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -2727,7 +2773,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -2735,55 +2781,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26) / 20</f>
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>47</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="58">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="58">
   <x:si>
     <x:t>박관희</x:t>
   </x:si>
@@ -175,32 +175,32 @@
     <x:t>3,4-(4)</x:t>
   </x:si>
   <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80%</x:t>
+  </x:si>
+  <x:si>
     <x:t>95%</x:t>
   </x:si>
   <x:si>
+    <x:t>75%</x:t>
+  </x:si>
+  <x:si>
     <x:t>15%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="26">
+  <x:fonts count="11">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -231,345 +231,23 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff954f72"/>
-          <x:u/>
-          <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineColor rgb="ff954f72"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff954f72"/>
-          <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff0563c1"/>
-          <x:u/>
-          <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineColor rgb="ff0563c1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff0563c1"/>
-          <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff44546a"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff44546a"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="15"/>
-          <x:color rgb="ff44546a"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="15"/>
-          <x:color rgb="ff44546a"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="13"/>
-          <x:color rgb="ff44546a"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="13"/>
-          <x:color rgb="ff44546a"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff44546a"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff44546a"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
       <x:color rgb="ff3f3f76"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff3f3f3f"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff3f3f3f"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="fffa7d00"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="fffa7d00"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="fffa7d00"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="fffa7d00"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff006100"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff006100"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff9c0006"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff9c0006"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff9c6500"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff9c6500"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff7f7f7f"/>
-          <x:i val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff7f7f7f"/>
-          <x:i val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
       <x:name val="HY헤드라인M"/>
       <x:sz val="30"/>
@@ -883,7 +561,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="4" borderId="2">
+    <x:xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -919,260 +597,260 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="24" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="24" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="right" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="right" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="right" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="right" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="18" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="right" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="18" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="right" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1880,8 +1558,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:X26"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C6" activeCellId="0" sqref="C6:V6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B6" activeCellId="0" sqref="B6:V6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -2062,7 +1740,9 @@
       <x:c r="A6" s="12" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B6" s="5"/>
+      <x:c r="B6" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="C6" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -2082,10 +1762,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I6" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J6" s="5" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="J6" s="5" t="s">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="K6" s="5" t="s">
         <x:v>19</x:v>
@@ -2118,10 +1798,11 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U6" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="V6" s="5" t="s">
         <x:v>4</x:v>
+      </x:c>
+      <x:c r="V6" s="8" t="str">
+        <x:f>COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
+        <x:v>90%</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:24">
@@ -2129,64 +1810,64 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U7" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V7" s="8" t="str">
         <x:f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</x:f>
@@ -2229,64 +1910,64 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V9" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2489,64 +2170,64 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I15" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U15" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V15" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2559,64 +2240,64 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G16" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S16" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="T16" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U16" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V16" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2689,64 +2370,64 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G19" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M19" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T19" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U19" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V19" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2940,7 +2621,7 @@
       </x:c>
       <x:c r="B26" s="10">
         <x:f>COUNTIF(B6:B25,"O")*5</x:f>
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C26" s="10">
         <x:f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</x:f>
@@ -2968,11 +2649,11 @@
       </x:c>
       <x:c r="I26" s="10">
         <x:f t="shared" si="1"/>
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J26" s="10">
         <x:f t="shared" si="1"/>
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K26" s="10">
         <x:f t="shared" si="1"/>
@@ -3016,7 +2697,7 @@
       </x:c>
       <x:c r="U26" s="10">
         <x:f t="shared" si="1"/>
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="V26" s="6">
         <x:f>SUM(B26:U26)/20</x:f>
@@ -3031,7 +2712,7 @@
     <x:mergeCell ref="A1:V3"/>
     <x:mergeCell ref="A4:V4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3915,7 +3596,7 @@
     <x:mergeCell ref="A1:V3"/>
     <x:mergeCell ref="A4:V4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\메추라기\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F265035-3B45-401E-B92F-C6D8EF1561F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11865" tabRatio="580"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
     <sheet name="2주차" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="51">
   <si>
     <t>박관희</t>
   </si>
@@ -178,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,9 +557,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -740,7 +741,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -749,7 +750,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1061,12 +1062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:U18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2016,29 +2017,69 @@
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="V21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X21" s="2"/>
     </row>
@@ -2046,29 +2087,69 @@
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="V22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X22" s="2"/>
     </row>
@@ -2168,87 +2249,87 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>40</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>29.5</v>
+        <v>38.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -2266,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,23 +5,34 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nec\Desktop\deeplearning\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F265035-3B45-401E-B92F-C6D8EF1561F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFBF40E-7510-42C0-B683-9EB3124E98FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
     <sheet name="2주차" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="51">
   <si>
     <t>박관희</t>
   </si>
@@ -1067,16 +1078,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B23" sqref="B23:U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1113,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1126,7 +1137,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1150,7 +1161,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1176,7 +1187,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1313,7 +1324,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1394,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +1424,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1483,7 +1494,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1513,7 +1524,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1543,7 +1554,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1573,7 +1584,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1603,7 +1614,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1673,7 +1684,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1743,7 +1754,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +1824,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1854,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -1913,7 +1924,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -1983,7 +1994,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2024,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2083,7 +2094,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2153,37 +2164,77 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="V23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2264,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2243,93 +2294,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>45</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D26" s="10">
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="I26" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>38.75</v>
+        <v>43.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -2355,13 +2406,13 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -2387,7 +2438,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2411,7 +2462,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2435,7 +2486,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -2461,7 +2512,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +2580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2558,7 +2609,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -2588,7 +2639,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +2669,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -2648,7 +2699,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -2678,7 +2729,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -2708,7 +2759,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -2738,7 +2789,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2768,7 +2819,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -2798,7 +2849,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -2828,7 +2879,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2858,7 +2909,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2888,7 +2939,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2918,7 +2969,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2948,7 +2999,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2978,7 +3029,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3008,7 +3059,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3089,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3068,7 +3119,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3098,7 +3149,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3128,7 +3179,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwlt\OneDrive\바탕 화면\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3293CD-052C-4607-997F-EEE630B1BFBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="3910" windowWidth="19200" windowHeight="11260" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="3915" windowWidth="19200" windowHeight="11265" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
     <sheet name="2주차" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="53">
   <si>
     <t>박관희</t>
   </si>
@@ -185,12 +179,20 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,9 +570,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -752,7 +754,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -761,7 +763,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1073,21 +1075,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:U24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -1113,7 +1115,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1137,7 +1139,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1161,7 +1163,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1187,7 +1189,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1394,7 +1396,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1424,12 +1426,12 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>49</v>
@@ -1494,7 +1496,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1524,37 +1526,77 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1626,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1656,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1684,7 +1726,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1754,7 +1796,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1824,7 +1866,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1854,7 +1896,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -1924,7 +1966,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -1994,7 +2036,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2066,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2094,7 +2136,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2164,7 +2206,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2234,7 +2276,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2304,7 +2346,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2334,93 +2376,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>46.75</v>
+        <v>51.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -2438,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
@@ -2446,13 +2488,13 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -2478,7 +2520,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2502,7 +2544,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2526,7 +2568,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -2552,7 +2594,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2620,7 +2662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2649,7 +2691,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -2679,7 +2721,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -2709,7 +2751,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -2739,7 +2781,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -2769,7 +2811,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -2799,7 +2841,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -2829,7 +2871,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2859,7 +2901,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -2889,7 +2931,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +2961,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2949,7 +2991,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2979,7 +3021,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3009,7 +3051,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3039,7 +3081,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3069,7 +3111,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3099,7 +3141,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3129,7 +3171,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3159,7 +3201,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3189,7 +3231,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3219,7 +3261,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbsgk\Desktop\1\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황인호\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06005AC0-4FBE-4F3F-A579-9CAA2FADE6A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7116D5-B52A-4111-8302-255BEF1AFCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="59">
   <si>
     <t>박관희</t>
   </si>
@@ -1110,16 +1110,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1169,7 +1169,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1193,7 +1193,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1776,7 +1776,1372 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>50%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>15%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>85%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>75%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>60%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>90%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>65%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O")*5</f>
+        <v>85</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>80</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26)/20</f>
+        <v>78.25</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1806,427 +3171,187 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>15%</v>
+        <v>0%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>0%</v>
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>75%</v>
+        <v>0%</v>
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>0%</v>
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>60%</v>
+        <v>0%</v>
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>0%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2256,1092 +3381,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>90%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>65%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>85</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>80</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26)/20</f>
-        <v>75.75</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3371,7 +3411,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3401,7 +3441,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3431,7 +3471,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3461,7 +3501,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3491,7 +3531,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황인호\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJ\Desktop\Personal\조시훈\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7116D5-B52A-4111-8302-255BEF1AFCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7952A53E-E2D5-4A48-A896-577095854FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -1109,17 +1109,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1169,7 +1169,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1193,7 +1193,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2758,13 +2758,13 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2814,7 +2814,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2838,7 +2838,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJ\Desktop\Personal\조시훈\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAE\Desktop\deep__git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7952A53E-E2D5-4A48-A896-577095854FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E02277-AA56-4385-9552-30F33EC1C279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="210" windowWidth="19905" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="59">
   <si>
     <t>박관희</t>
   </si>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2270,29 +2270,69 @@
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -2652,7 +2692,7 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
@@ -2660,15 +2700,15 @@
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -2676,23 +2716,23 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
@@ -2700,11 +2740,11 @@
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
@@ -2712,15 +2752,15 @@
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
@@ -2728,11 +2768,11 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>78.25</v>
+        <v>82</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,29 +5,21 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAE\Desktop\deep__git\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJ\Desktop\Personal\조시훈\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E02277-AA56-4385-9552-30F33EC1C279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F17E245-20B5-4058-9C9F-51B3CB0510CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="210" windowWidth="19905" windowHeight="12915" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
     <sheet name="2주차" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -528,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1107,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2616,7 +2611,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2686,7 +2681,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2777,6 +2772,24 @@
       <c r="W26" s="13" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJ\Desktop\Personal\조시훈\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F17E245-20B5-4058-9C9F-51B3CB0510CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678671B-0B6B-4B73-9A49-5E1A8C9AF8CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="51">
   <si>
     <t>박관희</t>
   </si>
@@ -173,41 +173,11 @@
     <t>3,4-(4)</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>o</t>
+    <t>O</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
+    <t>X</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -563,6 +533,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1105,7 +1075,7 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,104 +1085,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -1426,64 +1396,64 @@
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1496,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>49</v>
@@ -1566,64 +1536,64 @@
         <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1636,64 +1606,64 @@
         <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1706,64 +1676,64 @@
         <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="V12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1776,64 +1746,64 @@
         <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1816,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -2056,64 +2026,64 @@
         <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="V17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2199,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>49</v>
@@ -2211,13 +2181,13 @@
         <v>49</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>49</v>
@@ -2229,7 +2199,7 @@
         <v>49</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>49</v>
@@ -2250,7 +2220,7 @@
         <v>49</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>49</v>
@@ -2266,64 +2236,64 @@
         <v>39</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2616,64 +2586,64 @@
         <v>31</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2774,22 +2744,22 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C31" s="23"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C32" s="23"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="23"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="23"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="23"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="23"/>
+      <c r="C36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2818,104 +2788,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,26 +5,27 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJ\Desktop\Personal\조시훈\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678671B-0B6B-4B73-9A49-5E1A8C9AF8CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF5AEA5-FB7A-4B2D-9486-4666D8C56B4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
     <sheet name="2주차" sheetId="2" r:id="rId2"/>
+    <sheet name="3주차" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="52">
   <si>
     <t>박관희</t>
   </si>
@@ -178,6 +179,10 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 이론시험 채점표</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1079,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
@@ -2777,7 +2782,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
@@ -3655,4 +3660,888 @@
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982E5F93-6B49-4F82-A72B-DF2858F23C59}">
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O")*5</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26)/20</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\메추라기\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF5AEA5-FB7A-4B2D-9486-4666D8C56B4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="53">
   <si>
     <t>박관희</t>
   </si>
@@ -184,12 +183,15 @@
   <si>
     <t>3주차 이론시험 채점표</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,9 +572,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -754,7 +756,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -763,7 +765,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1075,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2778,12 +2780,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3113,29 +3115,67 @@
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
@@ -3565,87 +3605,87 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3663,11 +3703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982E5F93-6B49-4F82-A72B-DF2858F23C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
+    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3967,29 +4007,67 @@
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
@@ -4449,87 +4527,87 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\메추라기\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\딥러닝 스터디\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="54">
   <si>
     <t>박관희</t>
   </si>
@@ -186,12 +186,15 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,13 +1088,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1120,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1141,7 +1144,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1165,7 +1168,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1191,7 +1194,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1398,7 +1401,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1471,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1541,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1611,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1678,7 +1681,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1748,7 +1751,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1818,7 +1821,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1888,7 +1891,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1958,7 +1961,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2031,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2098,7 +2101,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2238,7 +2241,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2308,7 +2311,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2381,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2448,7 +2451,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2518,7 +2521,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2588,7 +2591,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2658,7 +2661,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2750,22 +2753,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2784,17 +2787,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:U11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2820,7 +2823,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2844,7 +2847,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2868,7 +2871,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2894,7 +2897,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -3021,7 +3024,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3051,7 +3054,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3081,7 +3084,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3111,7 +3114,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -3209,7 +3212,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3239,7 +3242,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -3269,7 +3272,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3299,7 +3302,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -3329,7 +3332,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3389,7 +3392,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3419,7 +3422,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3449,7 +3452,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3479,7 +3482,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3509,7 +3512,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3539,7 +3542,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3569,123 +3572,163 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D26" s="10">
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3710,13 +3753,13 @@
       <selection activeCell="B10" sqref="B10:U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
@@ -3742,7 +3785,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3766,7 +3809,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3790,7 +3833,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -3816,7 +3859,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3884,7 +3927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -3913,7 +3956,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -3943,7 +3986,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3973,7 +4016,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4003,7 +4046,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -4071,7 +4114,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -4101,7 +4144,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -4131,7 +4174,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4161,7 +4204,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -4191,7 +4234,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -4221,7 +4264,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -4251,7 +4294,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -4281,7 +4324,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -4311,7 +4354,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -4341,7 +4384,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -4371,7 +4414,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -4401,7 +4444,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -4431,7 +4474,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -4461,7 +4504,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -4491,7 +4534,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -4521,7 +4564,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="54">
   <si>
     <t>박관희</t>
   </si>
@@ -2787,7 +2787,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -3749,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:U10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4388,29 +4388,69 @@
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -4570,87 +4610,87 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D26" s="10">
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G26" s="10">
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="54">
   <si>
     <t>박관희</t>
   </si>
@@ -2787,8 +2787,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3585,9 +3585,7 @@
       <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>52</v>
       </c>
@@ -3638,7 +3636,7 @@
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>80%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
@@ -3660,7 +3658,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -3728,7 +3726,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3749,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A19" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4397,9 +4395,7 @@
       <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
@@ -4450,7 +4446,7 @@
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>80%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -4622,7 +4618,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4690,7 +4686,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\딥러닝 스터디\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwlt\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5488F-887F-48F4-8FE3-D2525FEB31C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="56">
   <si>
     <t>박관희</t>
   </si>
@@ -189,12 +201,20 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,9 +595,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -759,7 +779,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -768,7 +788,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1080,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2783,12 +2803,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3426,29 +3446,67 @@
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="B20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -3585,7 +3643,9 @@
       <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>52</v>
       </c>
@@ -3636,7 +3696,7 @@
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>85%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
@@ -3646,7 +3706,7 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
@@ -3658,7 +3718,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -3666,67 +3726,67 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>8.75</v>
+        <v>12.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3744,11 +3804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4236,29 +4296,67 @@
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X15" s="2"/>
     </row>
@@ -4395,7 +4493,9 @@
       <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
@@ -4446,7 +4546,7 @@
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>85%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -4606,87 +4706,87 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>8.75</v>
+        <v>13.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwlt\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\딥러닝 스터디\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5488F-887F-48F4-8FE3-D2525FEB31C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="56">
   <si>
     <t>박관희</t>
   </si>
@@ -214,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,9 +594,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -779,7 +778,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -788,7 +787,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1100,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2803,12 +2802,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:U20"/>
+    <sheetView topLeftCell="A13" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3643,9 +3642,7 @@
       <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>52</v>
       </c>
@@ -3696,7 +3693,7 @@
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>80%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
@@ -3718,7 +3715,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -3786,7 +3783,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>12.75</v>
+        <v>12.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3804,11 +3801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:U15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4493,9 +4490,7 @@
       <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
@@ -4546,7 +4541,7 @@
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>80%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -4718,7 +4713,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4786,7 +4781,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwlt\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5488F-887F-48F4-8FE3-D2525FEB31C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752667F1-903F-4EE2-81D0-4C55D8E65598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
@@ -3807,7 +3807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:U15"/>
     </sheetView>
   </sheetViews>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwlt\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2FB0E4-F56A-4698-ABA0-9C90077969F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E2CD6-7EB7-4B41-9A95-37CEA3AB14B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="450" windowWidth="23895" windowHeight="14145" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="56">
   <si>
     <t>박관희</t>
   </si>
@@ -1108,13 +1097,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1129,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1164,7 +1153,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1188,7 +1177,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1203,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1351,7 +1340,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1421,7 +1410,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1491,7 +1480,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1550,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +1620,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1701,7 +1690,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1760,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1841,7 +1830,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1911,7 +1900,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +1970,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2051,7 +2040,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2121,7 +2110,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2191,7 +2180,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2261,7 +2250,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2331,7 +2320,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2401,7 +2390,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2471,7 +2460,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2541,7 +2530,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2600,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2681,7 +2670,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2773,22 +2762,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2807,17 +2796,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:U20"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2843,7 +2832,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2867,7 +2856,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2891,7 +2880,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2917,7 +2906,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2985,7 +2974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -3014,7 +3003,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -3044,7 +3033,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3074,7 +3063,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3093,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3134,7 +3123,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -3202,7 +3191,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -3232,7 +3221,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3262,7 +3251,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -3292,7 +3281,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3322,37 +3311,77 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="B16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3382,7 +3411,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3412,7 +3441,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3442,7 +3471,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3510,7 +3539,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3540,7 +3569,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3570,7 +3599,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3600,7 +3629,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3630,7 +3659,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3700,93 +3729,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>12.75</v>
+        <v>17.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3807,17 +3836,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
@@ -3843,7 +3872,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3867,7 +3896,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3891,7 +3920,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -3917,7 +3946,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3985,7 +4014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -4014,7 +4043,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4044,7 +4073,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -4074,7 +4103,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4104,7 +4133,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -4172,7 +4201,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -4202,7 +4231,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -4232,7 +4261,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4262,37 +4291,75 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="B14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -4360,7 +4427,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -4390,7 +4457,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -4420,7 +4487,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -4450,7 +4517,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -4480,7 +4547,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -4550,7 +4617,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -4580,7 +4647,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -4610,7 +4677,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -4640,7 +4707,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -4670,7 +4737,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -4700,93 +4767,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\딥러닝 스터디\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E2CD6-7EB7-4B41-9A95-37CEA3AB14B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="450" windowWidth="23895" windowHeight="14145" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="450" windowWidth="23900" windowHeight="14150" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="56">
   <si>
     <t>박관희</t>
   </si>
@@ -203,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,9 +583,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -768,7 +767,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -777,7 +776,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1089,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1097,13 +1096,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1128,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1153,7 +1152,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1177,7 +1176,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1202,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1409,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1480,7 +1479,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1550,7 +1549,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1619,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1690,7 +1689,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1760,7 +1759,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1830,7 +1829,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1900,7 +1899,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1970,7 +1969,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2040,7 +2039,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2110,7 +2109,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2250,7 +2249,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2320,7 +2319,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2390,7 +2389,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2459,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2530,7 +2529,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2600,7 +2599,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2670,7 +2669,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2762,22 +2761,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2792,21 +2791,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2832,7 +2831,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2856,7 +2855,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2880,7 +2879,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2906,7 +2905,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -3033,7 +3032,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3063,7 +3062,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3093,7 +3092,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3123,7 +3122,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -3191,7 +3190,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -3221,7 +3220,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3251,7 +3250,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -3281,7 +3280,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3311,7 +3310,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -3381,7 +3380,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3411,7 +3410,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3441,7 +3440,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3471,7 +3470,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3539,7 +3538,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3569,7 +3568,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3599,7 +3598,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3629,7 +3628,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3659,7 +3658,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3672,9 +3671,7 @@
       <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>52</v>
       </c>
@@ -3725,11 +3722,11 @@
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>80%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -3747,7 +3744,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -3815,7 +3812,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>17.5</v>
+        <v>17.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3833,20 +3830,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A10" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
@@ -3872,7 +3869,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3896,7 +3893,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3920,7 +3917,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -3946,7 +3943,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4014,7 +4011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4073,7 +4070,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -4103,7 +4100,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4133,7 +4130,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -4201,7 +4198,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -4231,7 +4228,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -4261,7 +4258,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4291,7 +4288,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -4359,7 +4356,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -4427,7 +4424,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -4487,7 +4484,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -4517,7 +4514,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -4547,7 +4544,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -4560,9 +4557,7 @@
       <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
@@ -4613,11 +4608,11 @@
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>80%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -4647,7 +4642,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -4677,7 +4672,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -4707,7 +4702,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -4737,7 +4732,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -4767,7 +4762,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -4785,7 +4780,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4853,7 +4848,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF5AEA5-FB7A-4B2D-9486-4666D8C56B4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="66">
   <si>
     <t>박관희</t>
   </si>
@@ -183,13 +182,69 @@
   </si>
   <si>
     <t>3주차 이론시험 채점표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,9 +625,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -754,7 +809,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -763,7 +818,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1075,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1083,13 +1138,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1170,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1139,7 +1194,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1163,7 +1218,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1244,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1396,7 +1451,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1466,7 +1521,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1536,7 +1591,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1661,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1676,7 +1731,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1746,7 +1801,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1816,7 +1871,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +1941,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1956,7 +2011,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2026,7 +2081,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2096,7 +2151,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2166,7 +2221,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2236,7 +2291,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2306,7 +2361,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2376,7 +2431,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2446,7 +2501,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2516,7 +2571,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2586,7 +2641,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2656,7 +2711,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2748,22 +2803,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2778,21 +2833,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2818,7 +2873,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2842,7 +2897,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2866,7 +2921,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2892,7 +2947,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2960,7 +3015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2989,7 +3044,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -3019,7 +3074,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3049,7 +3104,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3079,7 +3134,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3109,7 +3164,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -3139,7 +3194,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -3169,7 +3224,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3199,37 +3254,75 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3259,7 +3352,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -3289,7 +3382,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3319,7 +3412,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3349,7 +3442,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3379,7 +3472,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3409,7 +3502,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3439,7 +3532,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3469,7 +3562,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3499,7 +3592,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3529,7 +3622,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3559,93 +3652,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="10">
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="10">
+      <c r="L26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="10">
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3663,20 +3756,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982E5F93-6B49-4F82-A72B-DF2858F23C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
+    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
@@ -3702,7 +3795,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3726,7 +3819,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3750,7 +3843,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -3776,7 +3869,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3844,7 +3937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -3873,37 +3966,75 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="V7" s="8" t="str">
         <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3933,7 +4064,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3963,7 +4094,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3993,7 +4124,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -4023,7 +4154,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -4053,7 +4184,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4083,7 +4214,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -4113,7 +4244,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -4143,7 +4274,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -4173,7 +4304,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -4203,7 +4334,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -4233,7 +4364,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -4263,7 +4394,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -4293,7 +4424,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -4323,7 +4454,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -4353,7 +4484,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -4383,7 +4514,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -4413,7 +4544,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -4443,93 +4574,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="61">
   <si>
     <t>박관희</t>
   </si>
@@ -186,13 +186,19 @@
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -201,42 +207,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -245,7 +215,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2845,8 +2815,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A7" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3176,29 +3146,67 @@
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
@@ -3267,62 +3275,62 @@
         <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3364,29 +3372,69 @@
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="B16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X16" s="2"/>
     </row>
@@ -3484,29 +3532,67 @@
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="B20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -3634,29 +3720,67 @@
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
@@ -3666,87 +3790,87 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>3.5</v>
+        <v>20.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3767,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3979,62 +4103,62 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="O7" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="T7" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="V7" s="8" t="str">
         <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
@@ -4106,29 +4230,67 @@
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
@@ -4226,29 +4388,67 @@
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="B14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
@@ -4256,29 +4456,67 @@
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X15" s="2"/>
     </row>
@@ -4406,29 +4644,67 @@
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -4588,15 +4864,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -4604,71 +4880,71 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>4.75</v>
+        <v>22.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B36534-8AC6-44FD-8C9C-FD81D843FEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="61">
   <si>
     <t>박관희</t>
   </si>
@@ -222,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,9 +615,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -787,7 +799,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -796,7 +808,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1108,7 +1120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2811,12 +2823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:U14"/>
+    <sheetView topLeftCell="J4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3660,29 +3672,65 @@
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="V23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
       <c r="X23" s="2"/>
     </row>
@@ -3790,15 +3838,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -3806,47 +3854,47 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H26" s="10">
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
@@ -3854,23 +3902,23 @@
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>20.75</v>
+        <v>24.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3888,11 +3936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:U7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4524,29 +4572,65 @@
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="V16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>70%</v>
       </c>
       <c r="X16" s="2"/>
     </row>
@@ -4884,7 +4968,7 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
@@ -4892,59 +4976,59 @@
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nec\Desktop\deeplearning\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B36534-8AC6-44FD-8C9C-FD81D843FEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F9B5D-5EB2-4DDF-AC11-9FF0161E2B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="61">
   <si>
     <t>박관희</t>
   </si>
@@ -2827,8 +2827,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3454,29 +3454,69 @@
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
       <c r="X17" s="2"/>
     </row>
@@ -3838,15 +3878,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -3854,71 +3894,71 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>24.75</v>
+        <v>29</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3939,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4376,29 +4416,69 @@
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="B12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="V12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
       <c r="X12" s="2"/>
     </row>
@@ -4948,31 +5028,31 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -4980,55 +5060,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nec\Desktop\deeplearning\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황인호\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F9B5D-5EB2-4DDF-AC11-9FF0161E2B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A45457-3587-425C-B66F-64E7AA4332FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="61">
   <si>
     <t>박관희</t>
   </si>
@@ -1128,13 +1128,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1184,7 +1184,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1208,7 +1208,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2793,22 +2793,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2827,17 +2827,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:U17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2887,7 +2887,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2911,7 +2911,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -3034,37 +3034,75 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="V7" s="8" t="str">
         <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -3094,7 +3132,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3124,7 +3162,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3154,7 +3192,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -3222,7 +3260,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -3252,7 +3290,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3282,7 +3320,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -3350,7 +3388,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3380,7 +3418,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -3450,7 +3488,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3520,7 +3558,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3550,7 +3588,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3580,7 +3618,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3648,7 +3686,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3678,7 +3716,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3708,7 +3746,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3774,7 +3812,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3804,7 +3842,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3872,7 +3910,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -3902,7 +3940,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -3910,55 +3948,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="P26" s="10">
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -3979,17 +4017,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A10" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
@@ -4015,7 +4053,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4039,7 +4077,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4063,7 +4101,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -4089,7 +4127,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4157,7 +4195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -4186,7 +4224,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4254,7 +4292,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -4284,7 +4322,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4314,7 +4352,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -4382,7 +4420,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -4412,7 +4450,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -4482,7 +4520,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4512,7 +4550,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -4580,7 +4618,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -4648,7 +4686,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -4714,7 +4752,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -4744,7 +4782,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -4774,7 +4812,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -4804,7 +4842,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -4872,37 +4910,75 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="V21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -4932,7 +5008,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -4962,7 +5038,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -4992,7 +5068,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -5022,93 +5098,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>35</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D26" s="10">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>30</v>
+        <v>34.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbsgk\Desktop\윤하\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE5ECB-CD3A-439E-AA6E-91FBA977EF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="71">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -202,13 +201,77 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,9 +652,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -773,7 +836,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -782,7 +845,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1094,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1102,13 +1165,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1197,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1158,7 +1221,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1182,7 +1245,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1271,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1345,7 +1408,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1415,7 +1478,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1485,7 +1548,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1555,7 +1618,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1625,7 +1688,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1695,7 +1758,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1765,7 +1828,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1835,7 +1898,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -1905,7 +1968,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -1975,7 +2038,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2045,7 +2108,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2115,7 +2178,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2185,7 +2248,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2255,7 +2318,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2325,7 +2388,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2395,7 +2458,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2465,7 +2528,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2535,7 +2598,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2605,7 +2668,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2675,7 +2738,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2767,22 +2830,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2797,21 +2860,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2837,7 +2900,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2861,7 +2924,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2885,7 +2948,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -2911,7 +2974,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +3042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3008,7 +3071,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3076,37 +3139,75 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="V8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>70%</v>
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3136,7 +3237,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3166,7 +3267,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3234,7 +3335,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3264,7 +3365,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3332,7 +3433,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3400,7 +3501,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3468,7 +3569,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3538,7 +3639,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3608,7 +3709,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3638,7 +3739,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -3668,7 +3769,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3736,7 +3837,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -3766,7 +3867,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -3834,7 +3935,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -3900,7 +4001,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -3968,7 +4069,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4036,21 +4137,21 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -4058,7 +4159,7 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -4066,7 +4167,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -4074,27 +4175,27 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
@@ -4102,7 +4203,7 @@
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
@@ -4114,15 +4215,15 @@
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>46.25</v>
+        <v>49.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4135,26 +4236,26 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:U8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4180,7 +4281,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4204,7 +4305,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4228,7 +4329,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4254,7 +4355,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4322,7 +4423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4351,7 +4452,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4419,7 +4520,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4487,7 +4588,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4555,7 +4656,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4623,7 +4724,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -4653,7 +4754,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -4723,7 +4824,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -4753,7 +4854,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -4821,7 +4922,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -4889,7 +4990,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -4955,7 +5056,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -4985,7 +5086,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5053,7 +5154,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5121,7 +5222,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5189,7 +5290,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5257,7 +5358,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5287,7 +5388,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5317,37 +5418,75 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="V24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5377,21 +5516,21 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -5399,71 +5538,71 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>49.25</v>
+        <v>54</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A373439E-859B-4A56-9FD1-52E2659520AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="72">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -265,13 +266,17 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(4)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,9 +657,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -836,7 +841,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -845,7 +850,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1157,7 +1162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1165,13 +1170,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1202,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1221,7 +1226,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1245,7 +1250,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1276,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1478,7 +1483,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1548,7 +1553,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1618,7 +1623,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1688,7 +1693,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1758,7 +1763,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1828,7 +1833,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1898,7 +1903,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -1968,7 +1973,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2038,7 +2043,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2108,7 +2113,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2178,7 +2183,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2248,7 +2253,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2323,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2388,7 +2393,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2458,7 +2463,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2528,7 +2533,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2598,7 +2603,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2668,7 +2673,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2738,7 +2743,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2830,22 +2835,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2860,21 +2865,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2900,7 +2905,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2924,7 +2929,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2948,7 +2953,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -2974,7 +2979,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3071,7 +3076,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3139,7 +3144,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3207,7 +3212,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3237,7 +3242,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3267,7 +3272,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3335,37 +3340,75 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>70%</v>
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3433,7 +3476,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3501,7 +3544,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3569,7 +3612,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3639,7 +3682,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3709,7 +3752,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3739,9 +3782,9 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3769,7 +3812,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3837,7 +3880,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -3867,7 +3910,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -3935,7 +3978,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4001,7 +4044,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4069,7 +4112,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4137,7 +4180,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4163,11 +4206,11 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -4175,55 +4218,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>49.75</v>
+        <v>53.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4241,21 +4284,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4281,7 +4324,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4305,7 +4348,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4329,7 +4372,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4355,7 +4398,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4423,36 +4466,74 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V6" s="8" t="str">
         <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+        <v>80%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4520,7 +4601,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4588,7 +4669,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4656,7 +4737,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4724,7 +4805,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -4754,7 +4835,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -4824,7 +4905,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -4854,7 +4935,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -4922,7 +5003,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -4990,7 +5071,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5056,7 +5137,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5086,7 +5167,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5154,7 +5235,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5222,7 +5303,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5290,7 +5371,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5358,7 +5439,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5388,7 +5469,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5418,7 +5499,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5486,7 +5567,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5516,21 +5597,21 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -5538,11 +5619,11 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
@@ -5554,23 +5635,23 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
@@ -5578,31 +5659,31 @@
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mco34\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A373439E-859B-4A56-9FD1-52E2659520AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781884B-4BB4-4EC6-A1C8-E18FD208D5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="74">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -270,6 +259,14 @@
   </si>
   <si>
     <t>5,6-(4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1170,13 +1167,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1199,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1226,7 +1223,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1250,7 +1247,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1276,7 +1273,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1483,7 +1480,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1553,7 +1550,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1623,7 +1620,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1693,7 +1690,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1763,7 +1760,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1833,7 +1830,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1903,7 +1900,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -1973,7 +1970,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2043,7 +2040,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2113,7 +2110,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2183,7 +2180,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2253,7 +2250,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2323,7 +2320,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2393,7 +2390,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2533,7 +2530,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2600,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2673,7 +2670,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2743,7 +2740,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2835,22 +2832,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2869,17 +2866,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2905,7 +2902,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2929,7 +2926,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2953,7 +2950,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -2979,7 +2976,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3047,7 +3044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3076,7 +3073,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3141,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3212,7 +3209,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3242,7 +3239,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3272,7 +3269,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3340,7 +3337,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3408,7 +3405,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3476,7 +3473,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3544,7 +3541,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3612,7 +3609,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3682,7 +3679,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3752,7 +3749,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3782,7 +3779,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
@@ -3812,7 +3809,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3880,37 +3877,75 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="V21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>70%</v>
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -3978,7 +4013,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4044,7 +4079,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4112,7 +4147,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4180,21 +4215,21 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -4202,19 +4237,19 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
@@ -4230,7 +4265,7 @@
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
@@ -4242,31 +4277,31 @@
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>53.25</v>
+        <v>56.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4288,17 +4323,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4324,7 +4359,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4348,7 +4383,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4372,7 +4407,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4398,7 +4433,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4466,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4533,7 +4568,7 @@
         <v>80%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4601,7 +4636,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4669,7 +4704,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4737,7 +4772,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4805,7 +4840,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -4835,7 +4870,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -4905,7 +4940,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -4935,7 +4970,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5003,7 +5038,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5071,7 +5106,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5137,37 +5172,75 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="V17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5235,7 +5308,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5303,7 +5376,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5371,7 +5444,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5439,7 +5512,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5469,7 +5542,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5499,7 +5572,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5567,7 +5640,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5597,21 +5670,21 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -5619,71 +5692,71 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>58</v>
+        <v>62.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mco34\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\DeepLearning\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781884B-4BB4-4EC6-A1C8-E18FD208D5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E741AA3-73B9-4F78-8170-A7BFD284FBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="76">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -259,6 +270,14 @@
   </si>
   <si>
     <t>5,6-(4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1167,13 +1186,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1218,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1223,7 +1242,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1247,7 +1266,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1273,7 +1292,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1410,7 +1429,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1480,7 +1499,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1569,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1620,7 +1639,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1709,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1760,7 +1779,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1830,7 +1849,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1900,7 +1919,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -1970,7 +1989,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2040,7 +2059,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2110,7 +2129,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2180,7 +2199,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2250,7 +2269,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2320,7 +2339,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2390,7 +2409,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2479,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2530,7 +2549,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2600,7 +2619,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2670,7 +2689,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2740,7 +2759,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2832,22 +2851,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2866,17 +2885,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2902,7 +2921,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2926,7 +2945,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2950,7 +2969,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -2976,7 +2995,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3044,7 +3063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3073,7 +3092,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3141,7 +3160,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3209,37 +3228,75 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="V9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3269,7 +3326,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3337,7 +3394,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3405,7 +3462,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3473,7 +3530,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3541,7 +3598,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3609,7 +3666,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3679,7 +3736,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3749,7 +3806,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3779,7 +3836,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
@@ -3809,7 +3866,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3877,7 +3934,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -3945,7 +4002,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -4013,7 +4070,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4079,7 +4136,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4147,7 +4204,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4215,13 +4272,13 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
@@ -4245,47 +4302,47 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
@@ -4301,7 +4358,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>56.75</v>
+        <v>59.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4327,13 +4384,13 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4359,7 +4416,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4383,7 +4440,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4407,7 +4464,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4433,7 +4490,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4501,7 +4558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4568,7 +4625,7 @@
         <v>80%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4636,7 +4693,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4704,7 +4761,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4772,7 +4829,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4840,7 +4897,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -4870,7 +4927,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -4940,7 +4997,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -4970,7 +5027,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5038,7 +5095,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5106,7 +5163,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5172,7 +5229,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5240,7 +5297,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5308,7 +5365,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5376,7 +5433,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5444,7 +5501,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5512,7 +5569,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5542,7 +5599,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5572,7 +5629,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5640,7 +5697,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5670,7 +5727,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\DeepLearning\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E741AA3-73B9-4F78-8170-A7BFD284FBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FF939-09C9-4777-9B7B-90B77D571158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="2460" windowWidth="22395" windowHeight="12945" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="76">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -2886,7 +2875,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3840,29 +3829,67 @@
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>65%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
@@ -4278,7 +4305,7 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
@@ -4298,43 +4325,43 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
@@ -4342,7 +4369,7 @@
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
@@ -4354,11 +4381,11 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>59.75</v>
+        <v>63</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FF939-09C9-4777-9B7B-90B77D571158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44D21B-7042-4BF1-B9BD-61966BA8BDAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2460" windowWidth="22395" windowHeight="12945" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="1050" windowWidth="28245" windowHeight="12945" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="76">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -2874,7 +2874,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -4407,8 +4407,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4928,29 +4928,67 @@
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
@@ -5210,7 +5248,9 @@
       <c r="G16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
@@ -5252,7 +5292,7 @@
       </c>
       <c r="V16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>70%</v>
+        <v>75%</v>
       </c>
       <c r="X16" s="2"/>
     </row>
@@ -5760,15 +5800,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -5776,15 +5816,15 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5792,55 +5832,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>62.75</v>
+        <v>67.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohsuzy\Desktop\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1634162-5164-4149-97E4-46FED6750972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="6204" yWindow="468" windowWidth="17280" windowHeight="11016" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="71">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -271,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,9 +653,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -836,7 +837,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -845,7 +846,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1157,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2860,12 +2861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3713,29 +3714,67 @@
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X18" s="2"/>
     </row>
@@ -4143,15 +4182,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -4159,71 +4198,71 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>49.75</v>
+        <v>54.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4241,12 +4280,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4828,29 +4867,67 @@
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X13" s="2"/>
     </row>
@@ -5522,15 +5599,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -5538,15 +5615,15 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5554,55 +5631,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>54</v>
+        <v>58.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44D21B-7042-4BF1-B9BD-61966BA8BDAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="1050" windowWidth="28245" windowHeight="12945" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="1050" windowWidth="28245" windowHeight="12945" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="78">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -259,6 +253,14 @@
   </si>
   <si>
     <t>5,6-(4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -281,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,9 +664,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -846,7 +848,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -855,7 +857,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1167,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2870,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
@@ -4403,12 +4405,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5000,7 +5002,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>27</v>
@@ -5768,29 +5770,69 @@
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
@@ -5800,23 +5842,23 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -5824,43 +5866,43 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
@@ -5868,19 +5910,19 @@
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67.5</v>
+        <v>72</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Deep_SYJ\DeepLearningStudy\03_TEST_DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="735" yWindow="1050" windowWidth="28245" windowHeight="12945" tabRatio="580" activeTab="2"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="85">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -261,6 +266,34 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -283,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4410,7 +4443,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5672,29 +5705,69 @@
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="V23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X23" s="2"/>
     </row>
@@ -5842,23 +5915,23 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -5866,7 +5939,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5874,55 +5947,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>72</v>
+        <v>76.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="735" yWindow="1050" windowWidth="28245" windowHeight="12945" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="735" yWindow="1050" windowWidth="28245" windowHeight="12945" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="86">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -310,6 +310,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2909,8 +2913,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3265,7 +3269,9 @@
       <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>75</v>
       </c>
@@ -3316,7 +3322,7 @@
       </c>
       <c r="V9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>60%</v>
+        <v>65%</v>
       </c>
       <c r="X9" s="2"/>
     </row>
@@ -4352,7 +4358,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4420,7 +4426,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>63</v>
+        <v>63.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4442,7 +4448,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\DeepLearning\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skunivackr-my.sharepoint.com/personal/diting9813_skuniv_ac_kr/Documents/바탕 화면/DeepLearning/DeepLearningStudy/03_TEST_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E741AA3-73B9-4F78-8170-A7BFD284FBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3E741AA3-73B9-4F78-8170-A7BFD284FBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33868CE9-08DD-47CD-8A52-C71664B84EB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="76">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -2886,7 +2886,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3300,29 +3300,67 @@
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
@@ -4278,15 +4316,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -4294,7 +4332,7 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -4302,63 +4340,63 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>59.75</v>
+        <v>64.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4380,8 +4418,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5573,29 +5611,67 @@
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
       <c r="X22" s="2"/>
     </row>
@@ -5733,15 +5809,15 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
@@ -5749,15 +5825,15 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5765,35 +5841,35 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
@@ -5801,19 +5877,19 @@
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>62.75</v>
+        <v>67</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skunivackr-my.sharepoint.com/personal/diting9813_skuniv_ac_kr/Documents/바탕 화면/DeepLearning/DeepLearningStudy/03_TEST_DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3E741AA3-73B9-4F78-8170-A7BFD284FBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33868CE9-08DD-47CD-8A52-C71664B84EB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2E2780-92CA-496B-8792-498316C9D7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="76">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -2885,8 +2874,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3878,29 +3867,69 @@
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>65%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
@@ -4316,7 +4345,7 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
@@ -4336,43 +4365,43 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
@@ -4380,7 +4409,7 @@
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
@@ -4392,11 +4421,11 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>64.25</v>
+        <v>67.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4418,8 +4447,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5039,29 +5068,69 @@
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X13" s="2"/>
     </row>
@@ -5809,31 +5878,31 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5841,55 +5910,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67</v>
+        <v>71.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2E2780-92CA-496B-8792-498316C9D7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="78">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -275,13 +274,21 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,9 +669,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -846,7 +853,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -855,7 +862,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1167,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2870,12 +2877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3366,7 +3373,9 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
@@ -3417,7 +3426,7 @@
       </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
@@ -4357,7 +4366,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4425,7 +4434,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67.5</v>
+        <v>67.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4443,12 +4452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4909,7 +4918,9 @@
       <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
@@ -4960,7 +4971,7 @@
       </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
@@ -5890,7 +5901,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -5958,7 +5969,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>71.75</v>
+        <v>72</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohsuzy\Desktop\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A39E93-D30A-412C-AD2B-DB39284589AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C8169-A2CF-4F48-943F-8EA4594586A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3372" yWindow="240" windowWidth="17280" windowHeight="11016" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="71">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -2866,7 +2866,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3379,7 +3379,9 @@
       <c r="D13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="13" t="s">
         <v>53</v>
       </c>
@@ -4287,7 +4289,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4574,7 +4576,9 @@
       <c r="D8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>53</v>
       </c>
@@ -4625,7 +4629,7 @@
       </c>
       <c r="V8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X8" s="2"/>
     </row>
@@ -5615,7 +5619,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -5683,7 +5687,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>58.75</v>
+        <v>59</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Deep_SYJ\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="92">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -270,6 +270,62 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -288,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2881,8 +2937,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3237,7 +3293,9 @@
       <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>75</v>
       </c>
@@ -3288,7 +3346,7 @@
       </c>
       <c r="V9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>60%</v>
+        <v>65%</v>
       </c>
       <c r="X9" s="2"/>
     </row>
@@ -4366,7 +4424,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4434,7 +4492,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67.75</v>
+        <v>68</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4456,8 +4514,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5759,29 +5817,69 @@
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="V23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
       <c r="X23" s="2"/>
     </row>
@@ -5889,23 +5987,23 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -5913,7 +6011,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5921,15 +6019,15 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
@@ -5937,39 +6035,39 @@
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>72</v>
+        <v>76.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohsuzy\Desktop\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79FF518-1591-4452-8B99-C2AB528DDC2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C3426-8F55-4CD5-B411-A3B021F8D377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="240" windowWidth="17280" windowHeight="11016" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="71">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -1166,13 +1166,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1222,7 +1222,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1246,7 +1246,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2831,22 +2831,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2865,17 +2865,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2925,7 +2925,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2949,7 +2949,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3336,37 +3336,77 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>70%</v>
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3436,7 +3476,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3504,7 +3544,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3572,7 +3612,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3642,7 +3682,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3712,7 +3752,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3782,7 +3822,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -3812,7 +3852,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3880,7 +3920,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -3910,7 +3950,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -3978,7 +4018,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -3991,9 +4031,7 @@
       <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4042,11 +4080,11 @@
       </c>
       <c r="V23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>80%</v>
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4114,7 +4152,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4182,7 +4220,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4200,7 +4238,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4208,11 +4246,11 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -4220,55 +4258,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>55</v>
+        <v>58.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4290,17 +4328,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4326,7 +4364,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4350,7 +4388,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4374,7 +4412,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4400,7 +4438,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4468,36 +4506,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V6" s="8" t="str">
         <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+        <v>85%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4565,7 +4643,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4635,7 +4713,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4703,7 +4781,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4771,7 +4849,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -4801,7 +4879,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -4871,7 +4949,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -4941,7 +5019,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5009,7 +5087,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5077,7 +5155,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5145,7 +5223,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5175,7 +5253,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5243,7 +5321,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5311,7 +5389,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5379,7 +5457,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5447,7 +5525,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5477,7 +5555,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5507,7 +5585,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5575,7 +5653,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5605,33 +5683,33 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
@@ -5643,23 +5721,23 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
@@ -5667,31 +5745,31 @@
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>59.25</v>
+        <v>63.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skunivackr-my.sharepoint.com/personal/diting9813_skuniv_ac_kr/Documents/바탕 화면/DeepLearning/DeepLearningStudy/03_TEST_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C3426-8F55-4CD5-B411-A3B021F8D377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{668C3426-8F55-4CD5-B411-A3B021F8D377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2DE41FD7-B088-4CB7-92B7-D81CB181A9A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="71">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -2866,7 +2866,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3242,29 +3242,69 @@
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
@@ -4226,87 +4266,87 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>58.25</v>
+        <v>63.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4329,7 +4369,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5529,29 +5569,69 @@
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X22" s="2"/>
     </row>
@@ -5689,31 +5769,31 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5721,35 +5801,35 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
@@ -5757,19 +5837,19 @@
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>63.5</v>
+        <v>68</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skunivackr-my.sharepoint.com/personal/diting9813_skuniv_ac_kr/Documents/바탕 화면/DeepLearning/DeepLearningStudy/03_TEST_DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Deep_SYJ\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{668C3426-8F55-4CD5-B411-A3B021F8D377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2DE41FD7-B088-4CB7-92B7-D81CB181A9A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="89">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -254,6 +253,78 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -272,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,9 +724,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -837,7 +908,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -846,7 +917,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1158,7 +1229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2861,12 +2932,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3212,29 +3283,69 @@
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="V9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>65%</v>
       </c>
       <c r="X9" s="2"/>
     </row>
@@ -3279,7 +3390,7 @@
         <v>53</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>53</v>
@@ -4266,7 +4377,7 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
@@ -4278,7 +4389,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4290,47 +4401,47 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
@@ -4346,7 +4457,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>63.25</v>
+        <v>66.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4364,12 +4475,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5639,29 +5750,69 @@
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="V23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X23" s="2"/>
     </row>
@@ -5769,23 +5920,23 @@
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -5793,7 +5944,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5801,55 +5952,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>68</v>
+        <v>72.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Deep_SYJ\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="90">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1237,13 +1241,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1273,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1293,7 +1297,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1317,7 +1321,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1347,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1550,7 +1554,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1620,7 +1624,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1690,7 +1694,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1830,7 +1834,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1900,7 +1904,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1970,7 +1974,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -2040,7 +2044,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2110,7 +2114,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2180,7 +2184,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2250,7 +2254,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2320,7 +2324,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2390,7 +2394,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2460,7 +2464,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2530,7 +2534,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2600,7 +2604,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2670,7 +2674,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2740,7 +2744,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2810,7 +2814,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2902,22 +2906,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2936,17 +2940,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2972,7 +2976,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2996,7 +3000,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3020,7 +3024,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3046,7 +3050,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3211,7 +3215,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3279,7 +3283,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3349,7 +3353,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3419,7 +3423,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3487,7 +3491,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3557,7 +3561,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3627,7 +3631,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3640,7 +3644,9 @@
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
@@ -3691,11 +3697,11 @@
       </c>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>70%</v>
+        <v>75%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3763,7 +3769,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3833,7 +3839,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3903,7 +3909,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3973,7 +3979,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -4003,7 +4009,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4071,7 +4077,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -4101,7 +4107,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -4169,7 +4175,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4235,7 +4241,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4303,7 +4309,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4371,7 +4377,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4389,7 +4395,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4457,7 +4463,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>66.5</v>
+        <v>66.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4479,17 +4485,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4515,7 +4521,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4539,7 +4545,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4563,7 +4569,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4589,7 +4595,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4794,7 +4800,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4864,7 +4870,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4877,7 +4883,9 @@
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
@@ -4928,11 +4936,11 @@
       </c>
       <c r="V9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>90%</v>
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -5000,7 +5008,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -5030,7 +5038,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -5100,7 +5108,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -5170,7 +5178,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5238,7 +5246,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5306,7 +5314,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5374,7 +5382,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5404,7 +5412,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5472,7 +5480,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5540,7 +5548,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5608,7 +5616,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5676,7 +5684,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5746,7 +5754,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5816,7 +5824,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5884,7 +5892,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5914,7 +5922,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -5932,7 +5940,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -6000,7 +6008,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>72.5</v>
+        <v>72.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="91">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2940,8 +2944,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4485,8 +4489,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4745,7 +4749,9 @@
       <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
@@ -4796,7 +4802,7 @@
       </c>
       <c r="V7" s="8" t="str">
         <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X7" s="2"/>
     </row>
@@ -5940,7 +5946,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -6008,7 +6014,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>72.75</v>
+        <v>73</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C614ECAC-F2CE-41CE-B203-85BBAEC913CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="91">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,9 +733,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -916,7 +917,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -925,7 +926,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1237,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2940,12 +2941,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4192,14 +4193,18 @@
       <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="I23" s="5" t="s">
         <v>24</v>
       </c>
@@ -4241,7 +4246,7 @@
       </c>
       <c r="V23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>90%</v>
       </c>
       <c r="X23" s="2"/>
     </row>
@@ -4399,7 +4404,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4411,7 +4416,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>66.75</v>
+        <v>67.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4485,12 +4490,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5342,7 +5347,9 @@
       <c r="G16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
@@ -5384,7 +5391,7 @@
       </c>
       <c r="V16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>75%</v>
+        <v>80%</v>
       </c>
       <c r="X16" s="2"/>
     </row>
@@ -5958,7 +5965,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -6014,7 +6021,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73</v>
+        <v>73.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\메추라기\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C614ECAC-F2CE-41CE-B203-85BBAEC913CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="92">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -326,6 +325,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -352,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,9 +736,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -917,7 +920,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -926,7 +929,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1238,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1246,13 +1249,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1281,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1302,7 +1305,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1326,7 +1329,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1355,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1559,7 +1562,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1632,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1702,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1772,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1839,7 +1842,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -2049,7 +2052,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2119,7 +2122,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2189,7 +2192,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2329,7 +2332,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2402,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2469,7 +2472,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2539,7 +2542,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2609,7 +2612,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2679,7 +2682,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2749,7 +2752,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2819,7 +2822,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2911,22 +2914,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2941,21 +2944,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2981,7 +2984,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3005,7 +3008,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3029,7 +3032,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3058,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3220,7 +3223,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3288,7 +3291,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3358,7 +3361,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3428,7 +3431,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3441,7 +3444,9 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
@@ -3492,11 +3497,11 @@
       </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3566,7 +3571,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3636,7 +3641,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3706,7 +3711,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3774,7 +3779,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3844,7 +3849,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3914,7 +3919,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +3989,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -4014,7 +4019,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4082,7 +4087,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -4112,7 +4117,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4185,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4250,7 +4255,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4318,7 +4323,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4386,7 +4391,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4404,7 +4409,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4472,7 +4477,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67.25</v>
+        <v>67.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4490,21 +4495,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4530,7 +4535,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4554,7 +4559,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4578,7 +4583,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4604,7 +4609,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4672,7 +4677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4741,7 +4746,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4811,7 +4816,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4881,7 +4886,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4951,7 +4956,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4964,7 +4969,9 @@
       <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
@@ -5015,11 +5022,11 @@
       </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -5049,7 +5056,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -5119,7 +5126,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -5189,7 +5196,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5257,7 +5264,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5325,7 +5332,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5395,7 +5402,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5425,7 +5432,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5493,7 +5500,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5561,7 +5568,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5629,7 +5636,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5697,7 +5704,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5767,7 +5774,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5837,7 +5844,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5905,7 +5912,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5935,7 +5942,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -5953,7 +5960,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -6021,7 +6028,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73.25</v>
+        <v>73.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\메추라기\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\딥러닝 스터디\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="93">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -355,7 +359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1249,13 +1253,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1285,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1305,7 +1309,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1329,7 +1333,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1355,7 +1359,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1562,7 +1566,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1632,7 +1636,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1772,7 +1776,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1842,7 +1846,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +1916,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1982,7 +1986,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -2052,7 +2056,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2122,7 +2126,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2192,7 +2196,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2262,7 +2266,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2332,7 +2336,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2402,7 +2406,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2472,7 +2476,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2542,7 +2546,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2612,7 +2616,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2752,7 +2756,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2822,7 +2826,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2914,22 +2918,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2948,17 +2952,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2984,7 +2988,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3008,7 +3012,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3032,7 +3036,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3058,7 +3062,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3223,7 +3227,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3291,7 +3295,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3361,7 +3365,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3431,7 +3435,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3501,7 +3505,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3571,7 +3575,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3641,7 +3645,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3711,7 +3715,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3779,7 +3783,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3849,7 +3853,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3919,7 +3923,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3989,7 +3993,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -4019,7 +4023,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4087,7 +4091,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -4117,7 +4121,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -4185,7 +4189,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4255,7 +4259,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4323,7 +4327,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4336,7 +4340,9 @@
       <c r="D25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4387,11 +4393,11 @@
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>85%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4409,7 +4415,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4477,7 +4483,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67.5</v>
+        <v>67.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4499,17 +4505,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4535,7 +4541,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4559,7 +4565,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4583,7 +4589,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4609,7 +4615,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4677,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4816,7 +4822,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4886,7 +4892,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4956,7 +4962,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -5026,7 +5032,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -5056,7 +5062,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -5126,7 +5132,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -5196,7 +5202,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5264,7 +5270,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5332,7 +5338,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5402,7 +5408,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5432,7 +5438,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5500,7 +5506,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5568,7 +5574,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5581,7 +5587,9 @@
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
@@ -5632,11 +5640,11 @@
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>85%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5704,7 +5712,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5774,7 +5782,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5844,7 +5852,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5912,7 +5920,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5942,7 +5950,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -5960,7 +5968,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -6028,7 +6036,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73.5</v>
+        <v>73.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\OneDrive\바탕 화면\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C614ECAC-F2CE-41CE-B203-85BBAEC913CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="93">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -346,13 +340,21 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,9 +735,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -917,7 +919,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -926,7 +928,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1238,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1246,13 +1248,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1280,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1302,7 +1304,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1326,7 +1328,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1354,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1559,7 +1561,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1631,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1701,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1771,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1839,7 +1841,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1909,7 +1911,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1979,7 +1981,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -2049,7 +2051,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2119,7 +2121,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2189,7 +2191,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2259,7 +2261,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2329,7 +2331,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2401,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2469,7 +2471,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2539,7 +2541,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2609,7 +2611,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2679,7 +2681,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2749,7 +2751,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2819,7 +2821,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2911,22 +2913,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2941,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
@@ -2949,13 +2951,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2981,7 +2983,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3005,7 +3007,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3029,7 +3031,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3057,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3220,7 +3222,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3288,7 +3290,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3358,7 +3360,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3428,7 +3430,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3496,7 +3498,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3566,7 +3568,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3636,7 +3638,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3706,7 +3708,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3774,7 +3776,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3844,7 +3846,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3914,7 +3916,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +3986,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -4014,7 +4016,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4082,7 +4084,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -4112,7 +4114,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4182,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4250,7 +4252,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4318,7 +4320,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4386,7 +4388,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4490,21 +4492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4530,7 +4532,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4554,7 +4556,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4578,7 +4580,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4604,7 +4606,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4672,7 +4674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4811,7 +4813,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4881,7 +4883,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4951,7 +4953,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -5019,7 +5021,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -5049,7 +5051,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -5119,7 +5121,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -5189,7 +5191,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5257,7 +5259,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5325,7 +5327,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5395,7 +5397,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5425,7 +5427,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5493,7 +5495,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5561,7 +5563,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5629,7 +5631,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5697,7 +5699,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5767,12 +5769,12 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>77</v>
@@ -5781,7 +5783,7 @@
         <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>77</v>
@@ -5837,7 +5839,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>55</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>56</v>
@@ -5905,59 +5907,99 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>COUNTIF(F6:F25,"O")*5</f>
+        <v>80</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
@@ -5965,43 +6007,43 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
@@ -6009,19 +6051,19 @@
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73.25</v>
+        <v>77.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="93">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -325,6 +325,14 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2944,8 +2952,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4026,7 +4034,9 @@
       <c r="D20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="F20" s="13" t="s">
         <v>24</v>
       </c>
@@ -4077,7 +4087,7 @@
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>75%</v>
+        <v>80%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -4399,7 +4409,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4467,7 +4477,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>66.75</v>
+        <v>67</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4489,8 +4499,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5265,7 +5275,9 @@
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>27</v>
       </c>
@@ -5316,7 +5328,7 @@
       </c>
       <c r="V15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>90%</v>
+        <v>95%</v>
       </c>
       <c r="X15" s="2"/>
     </row>
@@ -5946,7 +5958,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -6014,7 +6026,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73</v>
+        <v>73.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\딥러닝 스터디\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="94">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2953,7 +2957,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4336,7 +4340,9 @@
       <c r="D25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4387,7 +4393,7 @@
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>85%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
@@ -4409,7 +4415,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4477,7 +4483,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67</v>
+        <v>67.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4499,8 +4505,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5579,7 +5585,9 @@
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
@@ -5630,7 +5638,7 @@
       </c>
       <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>80%</v>
+        <v>85%</v>
       </c>
       <c r="X20" s="2"/>
     </row>
@@ -5958,7 +5966,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -6026,7 +6034,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73.25</v>
+        <v>73.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\딥러닝 스터디\새폴더\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\메추라기\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="95">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -363,7 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1257,13 +1261,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1293,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1313,7 +1317,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1337,7 +1341,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1367,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1570,7 +1574,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1640,7 +1644,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1710,7 +1714,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1780,7 +1784,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1850,7 +1854,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1920,7 +1924,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1990,7 +1994,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +2134,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2200,7 +2204,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2274,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2340,7 +2344,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2410,7 +2414,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2480,7 +2484,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2550,7 +2554,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2620,7 +2624,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2690,7 +2694,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2760,7 +2764,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2830,7 +2834,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2922,22 +2926,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2956,17 +2960,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2992,7 +2996,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3016,7 +3020,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3040,7 +3044,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3066,7 +3070,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3134,7 +3138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3235,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3299,7 +3303,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3369,7 +3373,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3439,7 +3443,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3452,7 +3456,9 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
@@ -3503,11 +3509,11 @@
       </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3577,7 +3583,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3647,7 +3653,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3717,7 +3723,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3785,7 +3791,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3855,7 +3861,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3925,7 +3931,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3995,7 +4001,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -4025,7 +4031,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4095,7 +4101,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -4125,7 +4131,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -4193,7 +4199,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4259,7 +4265,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4327,7 +4333,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4397,7 +4403,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4415,7 +4421,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4483,7 +4489,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67.25</v>
+        <v>67.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4505,17 +4511,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4547,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4565,7 +4571,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4589,7 +4595,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4615,7 +4621,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4822,7 +4828,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4892,7 +4898,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4962,7 +4968,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4975,7 +4981,9 @@
       <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
@@ -5026,11 +5034,11 @@
       </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -5060,7 +5068,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -5130,7 +5138,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -5200,7 +5208,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5268,7 +5276,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5338,7 +5346,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5406,7 +5414,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5436,7 +5444,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5504,7 +5512,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5572,7 +5580,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5642,7 +5650,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5710,7 +5718,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5780,7 +5788,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5850,7 +5858,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5918,7 +5926,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5948,7 +5956,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -5966,7 +5974,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -6034,7 +6042,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73.5</v>
+        <v>73.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동라스틱\Desktop\메추라기\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황인호\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F54888B-68DC-4B74-BB7D-186DF966FC06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="94">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -325,10 +326,6 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -367,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,9 +745,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -932,7 +929,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -941,7 +938,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1253,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1261,13 +1258,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1290,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1317,7 +1314,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1341,7 +1338,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1364,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1501,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +1571,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +1641,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1714,7 +1711,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1784,7 +1781,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1851,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1924,7 +1921,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1994,7 +1991,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -2064,7 +2061,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -2134,7 +2131,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2204,7 +2201,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2274,7 +2271,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2344,7 +2341,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2414,7 +2411,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2481,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2554,7 +2551,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +2621,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2694,7 +2691,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -2764,7 +2761,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2834,7 +2831,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2926,22 +2923,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2956,21 +2953,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2996,7 +2993,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3020,7 +3017,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3044,7 +3041,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3067,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -3180,7 +3177,9 @@
       <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
@@ -3235,7 +3234,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3303,7 +3302,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -3373,7 +3372,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -3443,7 +3442,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -3456,9 +3455,7 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
@@ -3509,11 +3506,11 @@
       </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>100%</v>
+        <v>95%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -3583,7 +3580,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -3653,7 +3650,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -3723,7 +3720,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3791,7 +3788,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -3861,7 +3858,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3931,7 +3928,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -4001,7 +3998,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -4031,7 +4028,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4101,7 +4098,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -4199,7 +4196,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -4265,7 +4262,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -4333,7 +4330,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4403,7 +4400,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +4418,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4489,7 +4486,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>67.5</v>
+        <v>67.25</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>37</v>
@@ -4507,21 +4504,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4547,7 +4544,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4571,7 +4568,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4595,7 +4592,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4621,7 +4618,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -4758,7 +4755,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4828,7 +4825,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4898,7 +4895,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -4968,7 +4965,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -4981,9 +4978,7 @@
       <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
@@ -5034,11 +5029,11 @@
       </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>100%</v>
+        <v>95%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -5068,7 +5063,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -5138,7 +5133,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -5208,7 +5203,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -5276,7 +5271,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -5346,7 +5341,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -5414,7 +5409,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -5444,7 +5439,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5512,7 +5507,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -5580,7 +5575,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -5650,7 +5645,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -5663,7 +5658,9 @@
       <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="5" t="s">
         <v>27</v>
       </c>
@@ -5714,11 +5711,11 @@
       </c>
       <c r="V21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>90%</v>
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5788,7 +5785,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -5858,7 +5855,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -5926,7 +5923,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -5956,7 +5953,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwlt\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43C0F71-C0E9-4F5A-A000-F54D612C2305}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAE8A8-B13B-4B7C-9C9D-59EE67340239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="54">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -195,6 +184,10 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1095,13 +1088,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1120,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1151,7 +1144,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1175,7 +1168,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1194,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1269,7 +1262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1331,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1401,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1471,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1541,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1611,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1681,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1758,7 +1751,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1828,7 +1821,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1891,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +1961,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2038,7 +2031,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -2108,7 +2101,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2171,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2248,7 +2241,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -2318,7 +2311,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2381,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2451,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2528,7 +2521,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2591,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2668,7 +2661,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -2760,22 +2753,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2795,16 +2788,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2823,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2854,7 +2847,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2878,7 +2871,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2904,7 +2897,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -2972,7 +2965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -3041,7 +3034,7 @@
         <v>95%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -3109,7 +3102,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -3177,7 +3170,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -3247,7 +3240,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +3310,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -3387,7 +3380,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3457,7 +3450,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -3527,7 +3520,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -3597,7 +3590,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -3667,7 +3660,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -3737,7 +3730,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -3807,7 +3800,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -3877,7 +3870,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3907,7 +3900,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -3977,7 +3970,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -4007,7 +4000,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -4077,7 +4070,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -4147,7 +4140,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -4217,7 +4210,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -4287,7 +4280,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -4396,16 +4389,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +4424,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4455,7 +4448,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4479,7 +4472,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4498,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -4573,7 +4566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -4642,7 +4635,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -4712,7 +4705,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -4782,7 +4775,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4852,7 +4845,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -4922,7 +4915,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -4952,7 +4945,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -5022,7 +5015,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -5092,67 +5085,69 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5160,7 +5155,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -5230,7 +5225,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -5300,7 +5295,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -5330,7 +5325,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -5400,7 +5395,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -5470,7 +5465,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -5540,7 +5535,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -5608,7 +5603,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -5678,7 +5673,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -5748,7 +5743,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -5816,7 +5811,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -5886,7 +5881,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAE8A8-B13B-4B7C-9C9D-59EE67340239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="56">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -190,11 +189,19 @@
     <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,9 +582,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -759,7 +766,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -768,7 +775,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1080,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1088,13 +1095,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1127,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1144,7 +1151,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1168,7 +1175,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1201,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1262,7 +1269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1408,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1478,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1541,7 +1548,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1618,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -1681,7 +1688,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1758,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1821,7 +1828,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -1891,7 +1898,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +1968,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2038,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2108,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2178,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2241,7 +2248,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -2311,7 +2318,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -2381,7 +2388,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2458,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2521,7 +2528,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2598,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2661,7 +2668,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -2753,22 +2760,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2783,21 +2790,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +2830,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2847,7 +2854,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2871,7 +2878,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2904,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -2965,7 +2972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>95%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -3102,7 +3109,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -3115,7 +3122,9 @@
       <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
@@ -3166,11 +3175,11 @@
       </c>
       <c r="V8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>70%</v>
+        <v>75%</v>
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -3240,7 +3249,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3319,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -3380,7 +3389,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3450,7 +3459,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -3520,7 +3529,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -3590,7 +3599,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -3660,7 +3669,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -3800,7 +3809,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -3870,7 +3879,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3900,7 +3909,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -3970,7 +3979,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -4000,7 +4009,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -4070,7 +4079,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -4140,7 +4149,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -4210,7 +4219,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -4280,7 +4289,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -4298,7 +4307,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
@@ -4366,7 +4375,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73.25</v>
+        <v>73.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>24</v>
@@ -4379,26 +4388,26 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4433,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4448,7 +4457,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4472,7 +4481,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4498,7 +4507,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -4566,7 +4575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -4635,7 +4644,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -4705,7 +4714,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -4775,7 +4784,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4845,7 +4854,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +4924,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -4945,7 +4954,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -5015,7 +5024,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -5085,7 +5094,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -5155,7 +5164,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -5225,7 +5234,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -5295,7 +5304,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -5325,7 +5334,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -5395,7 +5404,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -5465,7 +5474,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -5535,7 +5544,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -5603,7 +5612,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -5673,7 +5682,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -5743,7 +5752,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -5756,7 +5765,9 @@
       <c r="D24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" s="5" t="s">
         <v>51</v>
       </c>
@@ -5807,11 +5818,11 @@
       </c>
       <c r="V24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -5881,7 +5892,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -5899,7 +5910,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F26" s="10">
         <f>COUNTIF(F6:F25,"O")*5</f>
@@ -5967,7 +5978,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>78.75</v>
+        <v>79</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>24</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmw38\Desktop\AI\DeepLearning_Study\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562E2905-8654-4252-9D7D-2B9C6DB2CE18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2"/>
+    <workbookView xWindow="3780" yWindow="2145" windowWidth="21750" windowHeight="12945" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="56">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,9 +583,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="입력" xfId="3"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -766,7 +767,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -775,7 +776,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1087,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -1095,13 +1096,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1128,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1151,7 +1152,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1175,7 +1176,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1202,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1409,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1479,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1549,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1619,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1689,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1758,7 +1759,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1828,7 +1829,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1899,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +1969,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2038,7 +2039,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -2108,7 +2109,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2179,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2248,7 +2249,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -2318,7 +2319,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2389,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2459,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2599,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -2760,22 +2761,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2790,21 +2791,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2831,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2854,7 +2855,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2878,7 +2879,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2904,7 +2905,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>95%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -3109,7 +3110,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -3179,7 +3180,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -3249,7 +3250,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -3319,7 +3320,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -3389,7 +3390,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3459,7 +3460,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -3529,7 +3530,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -3599,7 +3600,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -3669,7 +3670,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -3739,7 +3740,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -3809,7 +3810,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -3879,37 +3880,77 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>65%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -3979,7 +4020,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -4009,7 +4050,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4120,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -4149,7 +4190,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -4219,7 +4260,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -4289,13 +4330,13 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
@@ -4315,43 +4356,43 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
@@ -4359,7 +4400,7 @@
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
@@ -4371,11 +4412,11 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>73.5</v>
+        <v>76.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>24</v>
@@ -4393,21 +4434,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4474,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4457,7 +4498,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4481,7 +4522,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4507,7 +4548,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -4575,7 +4616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -4644,7 +4685,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -4714,7 +4755,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -4784,7 +4825,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +4895,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -4924,37 +4965,77 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -5024,7 +5105,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -5094,7 +5175,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -5164,7 +5245,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -5234,7 +5315,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -5304,7 +5385,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -5334,7 +5415,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -5404,7 +5485,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -5474,7 +5555,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -5544,7 +5625,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -5612,7 +5693,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -5682,7 +5763,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -5752,7 +5833,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -5822,7 +5903,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -5892,37 +5973,37 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F26" s="10">
         <f>COUNTIF(F6:F25,"O")*5</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
@@ -5930,55 +6011,55 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>79</v>
+        <v>83.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>24</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mco34\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562E2905-8654-4252-9D7D-2B9C6DB2CE18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC71512-BB22-4464-8073-D6F1F87D4899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2145" windowWidth="21750" windowHeight="12945" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="59">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1096,13 +1108,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1140,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1152,7 +1164,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1176,7 +1188,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1214,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1491,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1549,7 +1561,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1631,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +1701,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1771,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1829,7 +1841,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -1899,7 +1911,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1969,7 +1981,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2039,7 +2051,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2121,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2191,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2249,7 +2261,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2401,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -2459,7 +2471,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2529,7 +2541,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2611,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2669,7 +2681,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -2761,22 +2773,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2795,17 +2807,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2831,7 +2843,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2855,7 +2867,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2879,7 +2891,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2905,7 +2917,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -3042,7 +3054,7 @@
         <v>95%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -3110,7 +3122,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -3180,7 +3192,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -3250,7 +3262,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -3320,7 +3332,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3402,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3460,7 +3472,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -3530,7 +3542,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3612,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -3670,7 +3682,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -3740,7 +3752,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -3810,7 +3822,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -3880,7 +3892,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3950,7 +3962,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -4020,37 +4032,77 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="V21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -4120,7 +4172,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -4190,7 +4242,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -4260,7 +4312,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -4330,41 +4382,41 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
@@ -4380,7 +4432,7 @@
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
@@ -4392,31 +4444,31 @@
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>76.75</v>
+        <v>80.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>24</v>
@@ -4438,17 +4490,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4474,7 +4526,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4498,7 +4550,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4522,7 +4574,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4548,7 +4600,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -4616,7 +4668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +4737,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -4755,7 +4807,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -4825,7 +4877,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4895,7 +4947,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +5017,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -5035,7 +5087,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -5105,7 +5157,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -5175,7 +5227,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -5245,7 +5297,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -5315,7 +5367,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -5385,37 +5437,77 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="V17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -5485,7 +5577,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -5555,7 +5647,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -5625,7 +5717,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -5693,7 +5785,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -5763,7 +5855,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -5833,7 +5925,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -5903,7 +5995,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -5973,93 +6065,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F26" s="10">
         <f>COUNTIF(F6:F25,"O")*5</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>83.75</v>
+        <v>88.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>24</v>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mco34\Desktop\새 폴더\DeepLearningStudy\03_TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC71512-BB22-4464-8073-D6F1F87D4899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3431D5-8920-4C4F-AC16-D800DAAE8ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1주차'!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="61">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1108,13 +1116,13 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1148,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1164,7 +1172,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1188,7 +1196,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1214,7 +1222,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1429,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1499,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1569,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1631,7 +1639,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -1701,7 +1709,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1779,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1841,7 +1849,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -1911,7 +1919,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1989,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2051,7 +2059,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2129,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -2191,7 +2199,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2269,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -2331,7 +2339,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -2401,7 +2409,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -2471,7 +2479,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2541,7 +2549,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2619,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2681,7 +2689,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -2773,22 +2781,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
     </row>
   </sheetData>
@@ -2807,17 +2815,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2843,7 +2851,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2867,7 +2875,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2891,7 +2899,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2917,7 +2925,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -2985,7 +2993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -3054,7 +3062,7 @@
         <v>95%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -3067,7 +3075,9 @@
       <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3122,7 +3132,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -3192,7 +3202,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -3262,7 +3272,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -3332,7 +3342,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -3402,7 +3412,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3472,7 +3482,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -3542,7 +3552,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3622,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -3682,7 +3692,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -3752,7 +3762,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -3822,7 +3832,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +3902,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3962,7 +3972,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -4032,7 +4042,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -4102,7 +4112,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -4172,7 +4182,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -4242,7 +4252,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -4312,7 +4322,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -4382,7 +4392,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -4490,17 +4500,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4536,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4550,7 +4560,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4574,7 +4584,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4600,7 +4610,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -4737,7 +4747,7 @@
         <v>85%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -4807,7 +4817,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -4877,7 +4887,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4947,7 +4957,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -5017,7 +5027,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -5087,7 +5097,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -5157,7 +5167,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -5227,7 +5237,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -5297,7 +5307,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -5367,7 +5377,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -5437,7 +5447,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -5507,7 +5517,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -5577,7 +5587,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -5647,7 +5657,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -5717,7 +5727,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -5730,7 +5740,9 @@
       <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F21" s="5" t="s">
         <v>51</v>
       </c>
@@ -5781,11 +5793,11 @@
       </c>
       <c r="V21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>90%</v>
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -5855,7 +5867,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -5925,7 +5937,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -5995,7 +6007,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -6065,7 +6077,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -6083,7 +6095,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F26" s="10">
         <f>COUNTIF(F6:F25,"O")*5</f>
@@ -6151,7 +6163,7 @@
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>88.75</v>
+        <v>89</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>24</v>
